--- a/Documentation/ADFS Blank Images.xlsx
+++ b/Documentation/ADFS Blank Images.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geraldholdsworth/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geraldholdsworth/OneDrive/Programming/Lazarus/DiscImageReader/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D07FF5-7DCE-274B-B362-D7712629CAA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BF02F7-4A79-B541-85F4-289E36E0EAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="440" windowWidth="28780" windowHeight="17560" activeTab="1" xr2:uid="{6B38E078-2221-FC45-930F-A25844997EBF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="368">
   <si>
     <t>Shape</t>
   </si>
@@ -571,9 +571,6 @@
     <t>0x0818</t>
   </si>
   <si>
-    <t>0x0C6C02</t>
-  </si>
-  <si>
     <t>0x0C6C03</t>
   </si>
   <si>
@@ -1109,6 +1106,39 @@
   </si>
   <si>
     <t>0x000FFF</t>
+  </si>
+  <si>
+    <t>0x0C6C04</t>
+  </si>
+  <si>
+    <t>Defect List</t>
+  </si>
+  <si>
+    <t>0x20000000</t>
+  </si>
+  <si>
+    <t>Points to boot block</t>
+  </si>
+  <si>
+    <t>0x80B8</t>
+  </si>
+  <si>
+    <t>0x0C7004</t>
+  </si>
+  <si>
+    <t>Points to root</t>
+  </si>
+  <si>
+    <t>0x0C7017</t>
+  </si>
+  <si>
+    <t>0x0C7717</t>
+  </si>
+  <si>
+    <t>0x0C7718</t>
+  </si>
+  <si>
+    <t>End of disc</t>
   </si>
 </sst>
 </file>
@@ -1214,13 +1244,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1730,7 +1760,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I7" t="s">
         <v>78</v>
@@ -1788,7 +1818,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I9" t="s">
         <v>81</v>
@@ -1801,73 +1831,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04299382-46D9-EE49-8AEF-FBA0A8BABDBE}">
-  <dimension ref="A1:K230"/>
+  <dimension ref="A1:K236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
@@ -1882,7 +1912,7 @@
       <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>110</v>
       </c>
       <c r="H3" t="s">
@@ -1894,9 +1924,9 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G4" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>112</v>
       </c>
       <c r="H4" t="s">
@@ -1908,9 +1938,9 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G5" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>114</v>
       </c>
       <c r="H5" t="s">
@@ -1924,7 +1954,7 @@
       <c r="A6" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>116</v>
       </c>
       <c r="H6" t="s">
@@ -1936,9 +1966,9 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G7" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H7" t="s">
@@ -1950,9 +1980,9 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G8" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H8" t="s">
@@ -1966,7 +1996,7 @@
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="7" t="s">
         <v>89</v>
       </c>
       <c r="H9" t="s">
@@ -1978,9 +2008,9 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>91</v>
       </c>
       <c r="H10" t="s">
@@ -1992,9 +2022,9 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>261</v>
-      </c>
-      <c r="G11" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>93</v>
       </c>
       <c r="H11" t="s">
@@ -2006,9 +2036,9 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>262</v>
-      </c>
-      <c r="G12" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>95</v>
       </c>
       <c r="H12" t="s">
@@ -2020,9 +2050,9 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>263</v>
-      </c>
-      <c r="G13" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>97</v>
       </c>
       <c r="H13" t="s">
@@ -2036,7 +2066,7 @@
       <c r="A14" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>98</v>
       </c>
       <c r="H14" t="s">
@@ -2048,9 +2078,9 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>264</v>
-      </c>
-      <c r="G15" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>99</v>
       </c>
       <c r="H15" t="s">
@@ -2062,9 +2092,9 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>265</v>
-      </c>
-      <c r="G16" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>100</v>
       </c>
       <c r="H16" t="s">
@@ -2076,9 +2106,9 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>266</v>
-      </c>
-      <c r="G17" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>102</v>
       </c>
       <c r="H17" t="s">
@@ -2090,9 +2120,9 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>267</v>
-      </c>
-      <c r="G18" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>104</v>
       </c>
       <c r="H18" t="s">
@@ -2104,9 +2134,9 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>268</v>
-      </c>
-      <c r="G19" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>130</v>
       </c>
       <c r="H19" t="s">
@@ -2118,9 +2148,9 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>269</v>
-      </c>
-      <c r="G20" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H20" t="s">
@@ -2132,23 +2162,23 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>270</v>
-      </c>
-      <c r="G21" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>134</v>
       </c>
       <c r="H21" t="s">
         <v>171</v>
       </c>
       <c r="I21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>271</v>
-      </c>
-      <c r="G22" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>136</v>
       </c>
       <c r="H22" t="s">
@@ -2160,9 +2190,9 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>138</v>
       </c>
       <c r="H23" t="s">
@@ -2174,9 +2204,9 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>273</v>
-      </c>
-      <c r="G24" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>140</v>
       </c>
       <c r="H24" t="s">
@@ -2188,9 +2218,9 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>274</v>
-      </c>
-      <c r="G25" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>142</v>
       </c>
       <c r="H25" t="s">
@@ -2202,9 +2232,9 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>275</v>
-      </c>
-      <c r="G26" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>144</v>
       </c>
       <c r="H26" t="s">
@@ -2216,30 +2246,30 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>276</v>
-      </c>
-      <c r="G27" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>146</v>
       </c>
       <c r="H27" t="s">
         <v>172</v>
       </c>
       <c r="I27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>277</v>
-      </c>
-      <c r="G28" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>148</v>
       </c>
       <c r="H28" t="s">
         <v>172</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -2249,7 +2279,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H30" t="s">
         <v>88</v>
@@ -2260,7 +2290,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H31" t="s">
         <v>39</v>
@@ -2271,7 +2301,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H32" t="s">
         <v>39</v>
@@ -2282,7 +2312,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H33" t="s">
         <v>173</v>
@@ -2293,7 +2323,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H34" t="s">
         <v>39</v>
@@ -2304,7 +2334,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H35" t="s">
         <v>39</v>
@@ -2315,7 +2345,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H36" t="s">
         <v>39</v>
@@ -2326,7 +2356,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H37" t="s">
         <v>39</v>
@@ -2337,14 +2367,14 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>286</v>
-      </c>
-      <c r="B39" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C39" t="s">
@@ -2362,9 +2392,9 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>287</v>
-      </c>
-      <c r="B40" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F40" t="s">
@@ -2373,9 +2403,9 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>288</v>
-      </c>
-      <c r="B41" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C41" t="s">
@@ -2393,9 +2423,9 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>289</v>
-      </c>
-      <c r="B42" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F42" t="s">
@@ -2404,9 +2434,9 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>290</v>
-      </c>
-      <c r="B43" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C43" t="s">
@@ -2424,9 +2454,9 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>291</v>
-      </c>
-      <c r="B44" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F44" t="s">
@@ -2435,9 +2465,9 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>292</v>
-      </c>
-      <c r="B45" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C45" t="s">
@@ -2455,9 +2485,9 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>293</v>
-      </c>
-      <c r="B46" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C46" t="s">
@@ -2475,9 +2505,9 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>294</v>
-      </c>
-      <c r="B47" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C47" t="s">
@@ -2495,9 +2525,9 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>295</v>
-      </c>
-      <c r="B48" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F48" t="s">
@@ -2511,9 +2541,9 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>296</v>
-      </c>
-      <c r="B50" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C50" t="s">
@@ -2528,9 +2558,9 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>297</v>
-      </c>
-      <c r="B51" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C51" t="s">
@@ -2550,7 +2580,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H53" t="s">
         <v>39</v>
@@ -2561,7 +2591,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H54" t="s">
         <v>173</v>
@@ -2572,7 +2602,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H55" t="s">
         <v>39</v>
@@ -2588,7 +2618,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H57" t="s">
         <v>39</v>
@@ -2604,33 +2634,33 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>302</v>
-      </c>
-      <c r="B59" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>25</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="I59" s="4"/>
+      <c r="H59" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>303</v>
-      </c>
-      <c r="B60" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B60" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F60" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="I60" s="4"/>
+      <c r="H60" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I60" s="9"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
@@ -2639,9 +2669,9 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>304</v>
-      </c>
-      <c r="B62" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C62" t="s">
@@ -2656,9 +2686,9 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>305</v>
-      </c>
-      <c r="B63" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C63" t="s">
@@ -2675,7 +2705,7 @@
       <c r="A64" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="7"/>
       <c r="C64" t="s">
         <v>39</v>
       </c>
@@ -2688,9 +2718,9 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>306</v>
-      </c>
-      <c r="B65" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B65" s="7" t="s">
         <v>32</v>
       </c>
       <c r="C65" t="s">
@@ -2705,9 +2735,9 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>307</v>
-      </c>
-      <c r="B66" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B66" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C66" t="s">
@@ -2724,7 +2754,7 @@
       <c r="A67" t="s">
         <v>28</v>
       </c>
-      <c r="B67" s="9"/>
+      <c r="B67" s="7"/>
       <c r="C67" t="s">
         <v>39</v>
       </c>
@@ -2737,9 +2767,9 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>308</v>
-      </c>
-      <c r="B68" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B68" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C68" t="s">
@@ -2756,13 +2786,13 @@
       <c r="A69" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="9"/>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>309</v>
-      </c>
-      <c r="B70" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C70" t="s">
@@ -2777,9 +2807,9 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>310</v>
-      </c>
-      <c r="B71" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C71" t="s">
@@ -2794,9 +2824,9 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>311</v>
-      </c>
-      <c r="B72" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C72" t="s">
@@ -2811,7 +2841,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>69</v>
@@ -2819,12 +2849,12 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>312</v>
-      </c>
-      <c r="B74" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="G74" s="7" t="s">
         <v>25</v>
       </c>
       <c r="H74" t="s">
@@ -2836,60 +2866,60 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>313</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G75" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>26</v>
       </c>
       <c r="H75" t="s">
         <v>59</v>
       </c>
       <c r="I75" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>314</v>
-      </c>
-      <c r="B76" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="I76" t="s">
         <v>226</v>
-      </c>
-      <c r="I76" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>315</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>229</v>
+        <v>314</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="I77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>316</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>231</v>
+        <v>315</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="I78" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>317</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>233</v>
+        <v>316</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="I79" t="s">
         <v>172</v>
@@ -2897,10 +2927,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>318</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>235</v>
+        <v>317</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="I80" t="s">
         <v>172</v>
@@ -2908,10 +2938,10 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>319</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>237</v>
+        <v>318</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="I81" t="s">
         <v>169</v>
@@ -2919,10 +2949,10 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>320</v>
-      </c>
-      <c r="B82" s="9" t="s">
-        <v>239</v>
+        <v>319</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="I82" t="s">
         <v>65</v>
@@ -2935,9 +2965,9 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>321</v>
-      </c>
-      <c r="B84" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B84" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F84" t="s">
@@ -2946,9 +2976,9 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B85" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F85" t="s">
@@ -2957,9 +2987,9 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>323</v>
-      </c>
-      <c r="B86" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>62</v>
       </c>
       <c r="F86" t="s">
@@ -2968,9 +2998,9 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>324</v>
-      </c>
-      <c r="B87" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B87" s="7" t="s">
         <v>64</v>
       </c>
       <c r="F87" t="s">
@@ -2979,9 +3009,9 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>325</v>
-      </c>
-      <c r="B88" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F88" t="s">
@@ -2990,9 +3020,9 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>326</v>
-      </c>
-      <c r="B89" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F89" t="s">
@@ -3001,9 +3031,9 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>327</v>
-      </c>
-      <c r="B90" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F90" t="s">
@@ -3012,9 +3042,9 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>328</v>
-      </c>
-      <c r="B91" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F91" t="s">
@@ -3028,25 +3058,34 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>329</v>
+        <v>328</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>358</v>
       </c>
       <c r="J93" t="s">
-        <v>39</v>
+        <v>359</v>
       </c>
       <c r="K93" t="s">
-        <v>39</v>
+        <v>359</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>28</v>
       </c>
+      <c r="J94" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>330</v>
-      </c>
-      <c r="G95" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>84</v>
       </c>
       <c r="J95" t="s">
@@ -3058,9 +3097,9 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>331</v>
-      </c>
-      <c r="G96" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>86</v>
       </c>
       <c r="J96" t="s">
@@ -3072,9 +3111,9 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>332</v>
-      </c>
-      <c r="G97" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>87</v>
       </c>
       <c r="J97" t="s">
@@ -3086,9 +3125,9 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>333</v>
-      </c>
-      <c r="G98" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J98" t="s">
@@ -3100,9 +3139,9 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>334</v>
-      </c>
-      <c r="G99" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>91</v>
       </c>
       <c r="J99" t="s">
@@ -3114,9 +3153,9 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>335</v>
-      </c>
-      <c r="G100" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>93</v>
       </c>
       <c r="J100" t="s">
@@ -3128,9 +3167,9 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>336</v>
-      </c>
-      <c r="G101" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>95</v>
       </c>
       <c r="J101" t="s">
@@ -3142,9 +3181,9 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>337</v>
-      </c>
-      <c r="G102" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>97</v>
       </c>
       <c r="J102" t="s">
@@ -3156,9 +3195,9 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>338</v>
-      </c>
-      <c r="G103" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>98</v>
       </c>
       <c r="J103" t="s">
@@ -3170,9 +3209,9 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>339</v>
-      </c>
-      <c r="G104" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>99</v>
       </c>
       <c r="J104" t="s">
@@ -3184,9 +3223,9 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>340</v>
-      </c>
-      <c r="G105" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>100</v>
       </c>
       <c r="J105" t="s">
@@ -3198,9 +3237,9 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>341</v>
-      </c>
-      <c r="G106" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>102</v>
       </c>
       <c r="J106" t="s">
@@ -3212,9 +3251,9 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>342</v>
-      </c>
-      <c r="G107" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>104</v>
       </c>
       <c r="J107" t="s">
@@ -3226,9 +3265,9 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>343</v>
-      </c>
-      <c r="G108" s="9"/>
+        <v>342</v>
+      </c>
+      <c r="G108" s="7"/>
       <c r="J108" t="s">
         <v>39</v>
       </c>
@@ -3238,23 +3277,23 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>344</v>
-      </c>
-      <c r="G109" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>146</v>
       </c>
       <c r="J109" t="s">
         <v>172</v>
       </c>
       <c r="K109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>345</v>
-      </c>
-      <c r="G110" s="9"/>
+        <v>344</v>
+      </c>
+      <c r="G110" s="7"/>
       <c r="J110" t="s">
         <v>39</v>
       </c>
@@ -3264,9 +3303,9 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>346</v>
-      </c>
-      <c r="G111" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>56</v>
       </c>
       <c r="J111" t="s">
@@ -3283,9 +3322,9 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>347</v>
-      </c>
-      <c r="G113" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>60</v>
       </c>
       <c r="H113" t="s">
@@ -3294,28 +3333,28 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>348</v>
-      </c>
-      <c r="G114" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>349</v>
-      </c>
-      <c r="G115" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>62</v>
       </c>
       <c r="H115" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>350</v>
-      </c>
-      <c r="G116" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="G116" s="7" t="s">
         <v>64</v>
       </c>
       <c r="H116" t="s">
@@ -3324,9 +3363,9 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>351</v>
-      </c>
-      <c r="G117" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>66</v>
       </c>
       <c r="H117" t="s">
@@ -3335,26 +3374,26 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>352</v>
-      </c>
-      <c r="B119" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I119" t="s">
         <v>242</v>
-      </c>
-      <c r="I119" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>353</v>
-      </c>
-      <c r="B120" s="9"/>
-      <c r="G120" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="G120" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H120" t="s">
@@ -3363,10 +3402,10 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>354</v>
-      </c>
-      <c r="B121" s="9"/>
-      <c r="G121" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="G121" s="7" t="s">
         <v>35</v>
       </c>
       <c r="H121" t="s">
@@ -3375,36 +3414,36 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>355</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G122" s="9"/>
+        <v>354</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G122" s="7"/>
       <c r="I122" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>356</v>
-      </c>
-      <c r="B123" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B123" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G123" s="9"/>
+      <c r="G123" s="7"/>
       <c r="I123" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>357</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G124" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G124" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H124" t="s">
@@ -3416,14 +3455,14 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G125" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>109</v>
       </c>
-      <c r="G126" s="9" t="s">
+      <c r="G126" s="7" t="s">
         <v>110</v>
       </c>
       <c r="J126" t="s">
@@ -3437,7 +3476,7 @@
       <c r="A127" t="s">
         <v>111</v>
       </c>
-      <c r="G127" s="9" t="s">
+      <c r="G127" s="7" t="s">
         <v>112</v>
       </c>
       <c r="J127" t="s">
@@ -3451,7 +3490,7 @@
       <c r="A128" t="s">
         <v>113</v>
       </c>
-      <c r="G128" s="9" t="s">
+      <c r="G128" s="7" t="s">
         <v>114</v>
       </c>
       <c r="J128" t="s">
@@ -3465,7 +3504,7 @@
       <c r="A129" t="s">
         <v>115</v>
       </c>
-      <c r="G129" s="9" t="s">
+      <c r="G129" s="7" t="s">
         <v>116</v>
       </c>
       <c r="J129" t="s">
@@ -3479,7 +3518,7 @@
       <c r="A130" t="s">
         <v>117</v>
       </c>
-      <c r="G130" s="9" t="s">
+      <c r="G130" s="7" t="s">
         <v>86</v>
       </c>
       <c r="J130" t="s">
@@ -3493,7 +3532,7 @@
       <c r="A131" t="s">
         <v>118</v>
       </c>
-      <c r="G131" s="9" t="s">
+      <c r="G131" s="7" t="s">
         <v>87</v>
       </c>
       <c r="J131" t="s">
@@ -3507,7 +3546,7 @@
       <c r="A132" t="s">
         <v>119</v>
       </c>
-      <c r="G132" s="9" t="s">
+      <c r="G132" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J132" t="s">
@@ -3521,7 +3560,7 @@
       <c r="A133" t="s">
         <v>120</v>
       </c>
-      <c r="G133" s="9" t="s">
+      <c r="G133" s="7" t="s">
         <v>91</v>
       </c>
       <c r="J133" t="s">
@@ -3535,7 +3574,7 @@
       <c r="A134" t="s">
         <v>121</v>
       </c>
-      <c r="G134" s="9" t="s">
+      <c r="G134" s="7" t="s">
         <v>93</v>
       </c>
       <c r="J134" t="s">
@@ -3549,7 +3588,7 @@
       <c r="A135" t="s">
         <v>122</v>
       </c>
-      <c r="G135" s="9" t="s">
+      <c r="G135" s="7" t="s">
         <v>95</v>
       </c>
       <c r="J135" t="s">
@@ -3563,7 +3602,7 @@
       <c r="A136" t="s">
         <v>123</v>
       </c>
-      <c r="G136" s="9" t="s">
+      <c r="G136" s="7" t="s">
         <v>97</v>
       </c>
       <c r="J136" t="s">
@@ -3577,7 +3616,7 @@
       <c r="A137" t="s">
         <v>124</v>
       </c>
-      <c r="G137" s="9" t="s">
+      <c r="G137" s="7" t="s">
         <v>98</v>
       </c>
       <c r="J137" t="s">
@@ -3591,7 +3630,7 @@
       <c r="A138" t="s">
         <v>125</v>
       </c>
-      <c r="G138" s="9" t="s">
+      <c r="G138" s="7" t="s">
         <v>99</v>
       </c>
       <c r="J138" t="s">
@@ -3605,7 +3644,7 @@
       <c r="A139" t="s">
         <v>126</v>
       </c>
-      <c r="G139" s="9" t="s">
+      <c r="G139" s="7" t="s">
         <v>100</v>
       </c>
       <c r="J139" t="s">
@@ -3619,7 +3658,7 @@
       <c r="A140" t="s">
         <v>127</v>
       </c>
-      <c r="G140" s="9" t="s">
+      <c r="G140" s="7" t="s">
         <v>102</v>
       </c>
       <c r="J140" t="s">
@@ -3633,7 +3672,7 @@
       <c r="A141" t="s">
         <v>128</v>
       </c>
-      <c r="G141" s="9" t="s">
+      <c r="G141" s="7" t="s">
         <v>104</v>
       </c>
       <c r="J141" t="s">
@@ -3647,7 +3686,7 @@
       <c r="A142" t="s">
         <v>129</v>
       </c>
-      <c r="G142" s="9" t="s">
+      <c r="G142" s="7" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3655,7 +3694,7 @@
       <c r="A143" t="s">
         <v>131</v>
       </c>
-      <c r="G143" s="9" t="s">
+      <c r="G143" s="7" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3663,21 +3702,21 @@
       <c r="A144" t="s">
         <v>133</v>
       </c>
-      <c r="G144" s="9" t="s">
+      <c r="G144" s="7" t="s">
         <v>134</v>
       </c>
       <c r="J144" t="s">
         <v>171</v>
       </c>
       <c r="K144" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>135</v>
       </c>
-      <c r="G145" s="9" t="s">
+      <c r="G145" s="7" t="s">
         <v>136</v>
       </c>
       <c r="J145" t="s">
@@ -3691,7 +3730,7 @@
       <c r="A146" t="s">
         <v>137</v>
       </c>
-      <c r="G146" s="9" t="s">
+      <c r="G146" s="7" t="s">
         <v>138</v>
       </c>
       <c r="J146" t="s">
@@ -3705,7 +3744,7 @@
       <c r="A147" t="s">
         <v>139</v>
       </c>
-      <c r="G147" s="9" t="s">
+      <c r="G147" s="7" t="s">
         <v>140</v>
       </c>
       <c r="J147" t="s">
@@ -3719,7 +3758,7 @@
       <c r="A148" t="s">
         <v>141</v>
       </c>
-      <c r="G148" s="9" t="s">
+      <c r="G148" s="7" t="s">
         <v>142</v>
       </c>
       <c r="J148" t="s">
@@ -3733,7 +3772,7 @@
       <c r="A149" t="s">
         <v>143</v>
       </c>
-      <c r="G149" s="9" t="s">
+      <c r="G149" s="7" t="s">
         <v>144</v>
       </c>
       <c r="J149" t="s">
@@ -3747,28 +3786,28 @@
       <c r="A150" t="s">
         <v>145</v>
       </c>
-      <c r="G150" s="9" t="s">
+      <c r="G150" s="7" t="s">
         <v>146</v>
       </c>
       <c r="J150" t="s">
         <v>172</v>
       </c>
       <c r="K150" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>147</v>
       </c>
-      <c r="G151" s="9" t="s">
+      <c r="G151" s="7" t="s">
         <v>148</v>
       </c>
       <c r="J151" t="s">
         <v>172</v>
       </c>
       <c r="K151" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -3783,6 +3822,9 @@
       <c r="A153" t="s">
         <v>150</v>
       </c>
+      <c r="G153" s="7" t="s">
+        <v>360</v>
+      </c>
       <c r="J153" t="s">
         <v>88</v>
       </c>
@@ -3930,7 +3972,7 @@
       <c r="A168" t="s">
         <v>175</v>
       </c>
-      <c r="G168" s="9" t="s">
+      <c r="G168" s="7" t="s">
         <v>110</v>
       </c>
       <c r="J168" t="s">
@@ -3944,7 +3986,7 @@
       <c r="A169" t="s">
         <v>176</v>
       </c>
-      <c r="G169" s="9" t="s">
+      <c r="G169" s="7" t="s">
         <v>112</v>
       </c>
       <c r="J169" t="s">
@@ -3958,7 +4000,7 @@
       <c r="A170" t="s">
         <v>178</v>
       </c>
-      <c r="G170" s="9" t="s">
+      <c r="G170" s="7" t="s">
         <v>114</v>
       </c>
       <c r="J170" t="s">
@@ -3970,7 +4012,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>179</v>
+        <v>357</v>
       </c>
       <c r="J171" t="s">
         <v>39</v>
@@ -3986,7 +4028,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J173" t="s">
         <v>39</v>
@@ -3997,7 +4039,7 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J174" t="s">
         <v>173</v>
@@ -4008,7 +4050,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J175" t="s">
         <v>39</v>
@@ -4024,7 +4066,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J177" t="s">
         <v>39</v>
@@ -4035,14 +4077,14 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G178" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>185</v>
-      </c>
-      <c r="G179" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G179" s="7" t="s">
         <v>110</v>
       </c>
       <c r="J179" t="s">
@@ -4054,23 +4096,23 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>186</v>
-      </c>
-      <c r="G180" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G180" s="7" t="s">
         <v>112</v>
       </c>
       <c r="J180" t="s">
-        <v>187</v>
+        <v>361</v>
       </c>
       <c r="K180" t="s">
-        <v>187</v>
+        <v>361</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>188</v>
-      </c>
-      <c r="G181" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G181" s="7" t="s">
         <v>114</v>
       </c>
       <c r="J181" t="s">
@@ -4082,12 +4124,21 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>28</v>
+        <v>362</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="J182" t="s">
+        <v>88</v>
+      </c>
+      <c r="K182" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="J183" t="s">
         <v>39</v>
@@ -4098,7 +4149,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>190</v>
+        <v>364</v>
       </c>
       <c r="J184" t="s">
         <v>173</v>
@@ -4109,7 +4160,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="J185" t="s">
         <v>39</v>
@@ -4120,108 +4171,114 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>28</v>
+        <v>188</v>
+      </c>
+      <c r="J186" t="s">
+        <v>39</v>
+      </c>
+      <c r="K186" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J187" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="K187" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G188" s="2" t="s">
-        <v>193</v>
+      <c r="A188" t="s">
+        <v>190</v>
+      </c>
+      <c r="J188" t="s">
+        <v>39</v>
+      </c>
+      <c r="K188" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>194</v>
-      </c>
-      <c r="G189" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J189" t="s">
-        <v>56</v>
-      </c>
-      <c r="K189" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>195</v>
-      </c>
-      <c r="G190" s="9" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="J190" t="s">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="K190" t="s">
-        <v>187</v>
+        <v>39</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>196</v>
-      </c>
-      <c r="G191" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J191" t="s">
-        <v>165</v>
-      </c>
-      <c r="K191" t="s">
-        <v>165</v>
+      <c r="G191" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="G192" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="J192" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="K192" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>28</v>
+        <v>194</v>
+      </c>
+      <c r="G193" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="J193" t="s">
+        <v>186</v>
+      </c>
+      <c r="K193" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="G194" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="J194" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="K194" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J195" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="K195" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="J196" t="s">
         <v>39</v>
@@ -4232,369 +4289,438 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>28</v>
+        <v>365</v>
+      </c>
+      <c r="G197" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="J197" t="s">
+        <v>173</v>
+      </c>
+      <c r="K197" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>201</v>
+        <v>366</v>
       </c>
       <c r="J198" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="K198" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>202</v>
-      </c>
-      <c r="J199" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="K199" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="J199" t="s">
+        <v>39</v>
+      </c>
+      <c r="K199" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>28</v>
-      </c>
-      <c r="J200" s="5"/>
-      <c r="K200" s="5"/>
+        <v>197</v>
+      </c>
+      <c r="J200" t="s">
+        <v>39</v>
+      </c>
+      <c r="K200" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>203</v>
-      </c>
-      <c r="J201" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="K201" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="J201" t="s">
+        <v>173</v>
+      </c>
+      <c r="K201" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B202" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>69</v>
+      <c r="A202" t="s">
+        <v>199</v>
+      </c>
+      <c r="J202" t="s">
+        <v>39</v>
+      </c>
+      <c r="K202" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>204</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G203" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J203" t="s">
-        <v>39</v>
-      </c>
-      <c r="K203" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>205</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G204" s="9" t="s">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="J204" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="K204" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>225</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="K205" t="s">
-        <v>227</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="J205" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K205" s="9"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>228</v>
-      </c>
-      <c r="B206" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="K206" t="s">
-        <v>220</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J206" s="4"/>
+      <c r="K206" s="4"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>230</v>
-      </c>
-      <c r="B207" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="K207" t="s">
-        <v>222</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="J207" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K207" s="9"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>232</v>
-      </c>
-      <c r="B208" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K208" t="s">
-        <v>172</v>
+      <c r="B208" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>234</v>
-      </c>
-      <c r="B209" s="9" t="s">
-        <v>235</v>
+        <v>203</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G209" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J209" t="s">
+        <v>39</v>
       </c>
       <c r="K209" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>236</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>237</v>
+        <v>204</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G210" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J210" t="s">
+        <v>59</v>
       </c>
       <c r="K210" t="s">
-        <v>103</v>
+        <v>223</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>238</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>239</v>
+        <v>224</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="K211" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G212" s="2" t="s">
-        <v>71</v>
+      <c r="A212" t="s">
+        <v>227</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K212" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>206</v>
-      </c>
-      <c r="G213" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J213" t="s">
-        <v>39</v>
+        <v>229</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K213" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>207</v>
-      </c>
-      <c r="G214" s="9" t="s">
-        <v>15</v>
+        <v>231</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K214" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>208</v>
-      </c>
-      <c r="G215" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J215" t="s">
-        <v>210</v>
+        <v>233</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K215" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>211</v>
-      </c>
-      <c r="G216" s="9" t="s">
-        <v>64</v>
+        <v>235</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K216" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>212</v>
-      </c>
-      <c r="G217" s="9" t="s">
-        <v>66</v>
+        <v>237</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K217" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B218" s="2" t="s">
-        <v>248</v>
+      <c r="G218" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>241</v>
-      </c>
-      <c r="B219" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="K219" t="s">
-        <v>243</v>
+        <v>205</v>
+      </c>
+      <c r="G219" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J219" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>213</v>
-      </c>
-      <c r="B220" s="9"/>
-      <c r="G220" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J220" t="s">
-        <v>39</v>
+        <v>206</v>
+      </c>
+      <c r="G220" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>214</v>
-      </c>
-      <c r="B221" s="9"/>
-      <c r="G221" s="9" t="s">
-        <v>35</v>
+        <v>207</v>
+      </c>
+      <c r="G221" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="J221" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>215</v>
-      </c>
-      <c r="B222" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="K222" t="s">
-        <v>39</v>
+        <v>210</v>
+      </c>
+      <c r="G222" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>211</v>
+      </c>
+      <c r="G223" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B224" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>240</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K225" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>212</v>
+      </c>
+      <c r="B226" s="7"/>
+      <c r="G226" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J226" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>213</v>
+      </c>
+      <c r="B227" s="7"/>
+      <c r="G227" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J227" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>214</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K228" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>244</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K229" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>245</v>
       </c>
-      <c r="B223" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K223" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+      <c r="B230" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B224" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G224" s="9" t="s">
+      <c r="G230" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J224" t="s">
+      <c r="J230" t="s">
         <v>56</v>
       </c>
-      <c r="K224" t="s">
+      <c r="K230" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A226" s="6" t="s">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A232" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A233" s="8" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A227" s="7" t="s">
+      <c r="B233" s="8"/>
+      <c r="C233" s="8"/>
+      <c r="D233" s="8"/>
+      <c r="E233" s="8"/>
+      <c r="F233" s="8"/>
+      <c r="G233" s="8"/>
+      <c r="H233" s="8"/>
+      <c r="I233" s="8"/>
+      <c r="J233" s="8"/>
+      <c r="K233" s="8"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A234" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
+      <c r="D234" s="8"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="8"/>
+      <c r="G234" s="8"/>
+      <c r="H234" s="8"/>
+      <c r="I234" s="8"/>
+      <c r="J234" s="8"/>
+      <c r="K234" s="8"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A235" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B227" s="7"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="7"/>
-      <c r="F227" s="7"/>
-      <c r="G227" s="7"/>
-      <c r="H227" s="7"/>
-      <c r="I227" s="7"/>
-      <c r="J227" s="7"/>
-      <c r="K227" s="7"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A228" s="7" t="s">
+      <c r="B235" s="8"/>
+      <c r="C235" s="8"/>
+      <c r="D235" s="8"/>
+      <c r="E235" s="8"/>
+      <c r="F235" s="8"/>
+      <c r="G235" s="8"/>
+      <c r="H235" s="8"/>
+      <c r="I235" s="8"/>
+      <c r="J235" s="8"/>
+      <c r="K235" s="8"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A236" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B228" s="7"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
-      <c r="G228" s="7"/>
-      <c r="H228" s="7"/>
-      <c r="I228" s="7"/>
-      <c r="J228" s="7"/>
-      <c r="K228" s="7"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A229" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B229" s="7"/>
-      <c r="C229" s="7"/>
-      <c r="D229" s="7"/>
-      <c r="E229" s="7"/>
-      <c r="F229" s="7"/>
-      <c r="G229" s="7"/>
-      <c r="H229" s="7"/>
-      <c r="I229" s="7"/>
-      <c r="J229" s="7"/>
-      <c r="K229" s="7"/>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A230" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B230" s="7"/>
-      <c r="C230" s="7"/>
-      <c r="D230" s="7"/>
-      <c r="E230" s="7"/>
-      <c r="F230" s="7"/>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7"/>
-      <c r="I230" s="7"/>
-      <c r="J230" s="7"/>
-      <c r="K230" s="7"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="8"/>
+      <c r="D236" s="8"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="8"/>
+      <c r="G236" s="8"/>
+      <c r="H236" s="8"/>
+      <c r="I236" s="8"/>
+      <c r="J236" s="8"/>
+      <c r="K236" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A229:K229"/>
-    <mergeCell ref="A230:K230"/>
+    <mergeCell ref="A235:K235"/>
+    <mergeCell ref="A236:K236"/>
     <mergeCell ref="H59:I59"/>
     <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J199:K199"/>
-    <mergeCell ref="J201:K201"/>
-    <mergeCell ref="A227:K227"/>
-    <mergeCell ref="A228:K228"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="A233:K233"/>
+    <mergeCell ref="A234:K234"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Documentation/ADFS Blank Images.xlsx
+++ b/Documentation/ADFS Blank Images.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geraldholdsworth/OneDrive/Programming/Lazarus/DiscImageReader/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geraldholdsworth/OneDrive/Programming/Lazarus/DiscImageReader/Documentation/Research/ADFS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BF02F7-4A79-B541-85F4-289E36E0EAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D183729D-5D4F-8049-AEC8-D6A108C37F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="440" windowWidth="28780" windowHeight="17560" activeTab="1" xr2:uid="{6B38E078-2221-FC45-930F-A25844997EBF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="375">
   <si>
     <t>Shape</t>
   </si>
@@ -1139,6 +1139,27 @@
   </si>
   <si>
     <t>End of disc</t>
+  </si>
+  <si>
+    <t>0x00033801</t>
+  </si>
+  <si>
+    <t>0x0C7013</t>
+  </si>
+  <si>
+    <t>0x0C7014</t>
+  </si>
+  <si>
+    <t>0x38</t>
+  </si>
+  <si>
+    <t>0x0C7015</t>
+  </si>
+  <si>
+    <t>0x0C7016</t>
+  </si>
+  <si>
+    <t>0x00000301</t>
   </si>
 </sst>
 </file>
@@ -1831,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04299382-46D9-EE49-8AEF-FBA0A8BABDBE}">
-  <dimension ref="A1:K236"/>
+  <dimension ref="A1:K240"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2115,7 +2136,7 @@
         <v>169</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2296,7 +2317,7 @@
         <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2307,7 +2328,7 @@
         <v>39</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2944,7 +2965,7 @@
         <v>236</v>
       </c>
       <c r="I81" t="s">
-        <v>169</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
@@ -3246,7 +3267,7 @@
         <v>103</v>
       </c>
       <c r="K106" t="s">
-        <v>103</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
@@ -3665,7 +3686,7 @@
         <v>103</v>
       </c>
       <c r="K140" t="s">
-        <v>103</v>
+        <v>368</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -4149,10 +4170,10 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="J184" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="K184" t="s">
         <v>173</v>
@@ -4160,56 +4181,62 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>28</v>
+        <v>370</v>
       </c>
       <c r="J185" t="s">
         <v>39</v>
       </c>
       <c r="K185" t="s">
-        <v>39</v>
+        <v>371</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>188</v>
+        <v>372</v>
       </c>
       <c r="J186" t="s">
         <v>39</v>
       </c>
       <c r="K186" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>189</v>
+        <v>373</v>
       </c>
       <c r="J187" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c r="K187" t="s">
-        <v>173</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>190</v>
+        <v>364</v>
       </c>
       <c r="J188" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="K188" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>28</v>
       </c>
+      <c r="J189" t="s">
+        <v>39</v>
+      </c>
+      <c r="K189" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J190" t="s">
         <v>39</v>
@@ -4219,102 +4246,93 @@
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G191" s="2" t="s">
-        <v>192</v>
+      <c r="A191" t="s">
+        <v>189</v>
+      </c>
+      <c r="J191" t="s">
+        <v>173</v>
+      </c>
+      <c r="K191" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>193</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="J192" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="K192" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>194</v>
-      </c>
-      <c r="G193" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J193" t="s">
-        <v>186</v>
-      </c>
-      <c r="K193" t="s">
-        <v>186</v>
+        <v>28</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>195</v>
-      </c>
-      <c r="G194" s="7" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="J194" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="K194" t="s">
-        <v>165</v>
+        <v>39</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>196</v>
-      </c>
-      <c r="J195" t="s">
-        <v>39</v>
-      </c>
-      <c r="K195" t="s">
-        <v>39</v>
+      <c r="G195" s="2" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>28</v>
+        <v>193</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="J196" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="K196" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>365</v>
+        <v>194</v>
       </c>
       <c r="G197" s="7" t="s">
-        <v>367</v>
+        <v>112</v>
       </c>
       <c r="J197" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="K197" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>366</v>
+        <v>195</v>
+      </c>
+      <c r="G198" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="J198" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="K198" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="J199" t="s">
         <v>39</v>
@@ -4325,7 +4343,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="J200" t="s">
         <v>39</v>
@@ -4336,7 +4354,10 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>198</v>
+        <v>365</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="J201" t="s">
         <v>173</v>
@@ -4347,23 +4368,29 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>199</v>
+        <v>366</v>
       </c>
       <c r="J202" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="K202" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>28</v>
       </c>
+      <c r="J203" t="s">
+        <v>39</v>
+      </c>
+      <c r="K203" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J204" t="s">
         <v>39</v>
@@ -4374,353 +4401,391 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>201</v>
-      </c>
-      <c r="J205" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="K205" s="9"/>
+        <v>198</v>
+      </c>
+      <c r="J205" t="s">
+        <v>173</v>
+      </c>
+      <c r="K205" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>28</v>
-      </c>
-      <c r="J206" s="4"/>
-      <c r="K206" s="4"/>
+        <v>199</v>
+      </c>
+      <c r="J206" t="s">
+        <v>39</v>
+      </c>
+      <c r="K206" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>202</v>
-      </c>
-      <c r="J207" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="K207" s="9"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B208" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G208" s="2" t="s">
-        <v>69</v>
+      <c r="A208" t="s">
+        <v>200</v>
+      </c>
+      <c r="J208" t="s">
+        <v>39</v>
+      </c>
+      <c r="K208" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>203</v>
-      </c>
-      <c r="B209" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J209" t="s">
-        <v>39</v>
-      </c>
-      <c r="K209" t="s">
-        <v>39</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="J209" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K209" s="9"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>204</v>
-      </c>
-      <c r="B210" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G210" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J210" t="s">
-        <v>59</v>
-      </c>
-      <c r="K210" t="s">
-        <v>223</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J210" s="4"/>
+      <c r="K210" s="4"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>224</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K211" t="s">
-        <v>226</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="J211" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="K211" s="9"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>227</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K212" t="s">
-        <v>219</v>
+      <c r="B212" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>230</v>
+        <v>25</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J213" t="s">
+        <v>39</v>
       </c>
       <c r="K213" t="s">
-        <v>221</v>
+        <v>39</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
+      </c>
+      <c r="G214" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J214" t="s">
+        <v>59</v>
       </c>
       <c r="K214" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="K215" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="K216" t="s">
-        <v>103</v>
+        <v>219</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="K217" t="s">
-        <v>65</v>
+        <v>221</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G218" s="2" t="s">
-        <v>71</v>
+      <c r="A218" t="s">
+        <v>231</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K218" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>205</v>
-      </c>
-      <c r="G219" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J219" t="s">
-        <v>39</v>
+        <v>233</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K219" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>206</v>
-      </c>
-      <c r="G220" s="7" t="s">
-        <v>15</v>
+        <v>235</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K220" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>207</v>
-      </c>
-      <c r="G221" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="J221" t="s">
-        <v>209</v>
+        <v>237</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K221" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>210</v>
-      </c>
-      <c r="G222" s="7" t="s">
-        <v>64</v>
+      <c r="G222" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G223" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="J223" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B224" s="2" t="s">
-        <v>247</v>
+      <c r="A224" t="s">
+        <v>206</v>
+      </c>
+      <c r="G224" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>240</v>
-      </c>
-      <c r="B225" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K225" t="s">
-        <v>242</v>
+        <v>207</v>
+      </c>
+      <c r="G225" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J225" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>212</v>
-      </c>
-      <c r="B226" s="7"/>
+        <v>210</v>
+      </c>
       <c r="G226" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J226" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>213</v>
-      </c>
-      <c r="B227" s="7"/>
+        <v>211</v>
+      </c>
       <c r="G227" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J227" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>214</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K228" t="s">
-        <v>39</v>
+      <c r="B228" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>15</v>
+        <v>241</v>
       </c>
       <c r="K229" t="s">
-        <v>108</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>212</v>
+      </c>
+      <c r="B230" s="7"/>
+      <c r="G230" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J230" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>213</v>
+      </c>
+      <c r="B231" s="7"/>
+      <c r="G231" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J231" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>214</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K232" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>244</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K233" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>245</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B234" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="G230" s="7" t="s">
+      <c r="G234" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="J230" t="s">
+      <c r="J234" t="s">
         <v>56</v>
       </c>
-      <c r="K230" t="s">
+      <c r="K234" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A232" s="5" t="s">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A236" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A233" s="8" t="s">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A237" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B233" s="8"/>
-      <c r="C233" s="8"/>
-      <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
-      <c r="F233" s="8"/>
-      <c r="G233" s="8"/>
-      <c r="H233" s="8"/>
-      <c r="I233" s="8"/>
-      <c r="J233" s="8"/>
-      <c r="K233" s="8"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A234" s="8" t="s">
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
+      <c r="D237" s="8"/>
+      <c r="E237" s="8"/>
+      <c r="F237" s="8"/>
+      <c r="G237" s="8"/>
+      <c r="H237" s="8"/>
+      <c r="I237" s="8"/>
+      <c r="J237" s="8"/>
+      <c r="K237" s="8"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A238" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B234" s="8"/>
-      <c r="C234" s="8"/>
-      <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
-      <c r="G234" s="8"/>
-      <c r="H234" s="8"/>
-      <c r="I234" s="8"/>
-      <c r="J234" s="8"/>
-      <c r="K234" s="8"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A235" s="8" t="s">
+      <c r="B238" s="8"/>
+      <c r="C238" s="8"/>
+      <c r="D238" s="8"/>
+      <c r="E238" s="8"/>
+      <c r="F238" s="8"/>
+      <c r="G238" s="8"/>
+      <c r="H238" s="8"/>
+      <c r="I238" s="8"/>
+      <c r="J238" s="8"/>
+      <c r="K238" s="8"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A239" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B235" s="8"/>
-      <c r="C235" s="8"/>
-      <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
-      <c r="F235" s="8"/>
-      <c r="G235" s="8"/>
-      <c r="H235" s="8"/>
-      <c r="I235" s="8"/>
-      <c r="J235" s="8"/>
-      <c r="K235" s="8"/>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A236" s="8" t="s">
+      <c r="B239" s="8"/>
+      <c r="C239" s="8"/>
+      <c r="D239" s="8"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="8"/>
+      <c r="G239" s="8"/>
+      <c r="H239" s="8"/>
+      <c r="I239" s="8"/>
+      <c r="J239" s="8"/>
+      <c r="K239" s="8"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A240" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="B236" s="8"/>
-      <c r="C236" s="8"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
-      <c r="G236" s="8"/>
-      <c r="H236" s="8"/>
-      <c r="I236" s="8"/>
-      <c r="J236" s="8"/>
-      <c r="K236" s="8"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="8"/>
+      <c r="D240" s="8"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="8"/>
+      <c r="G240" s="8"/>
+      <c r="H240" s="8"/>
+      <c r="I240" s="8"/>
+      <c r="J240" s="8"/>
+      <c r="K240" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A235:K235"/>
-    <mergeCell ref="A236:K236"/>
+    <mergeCell ref="A239:K239"/>
+    <mergeCell ref="A240:K240"/>
     <mergeCell ref="H59:I59"/>
     <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="A233:K233"/>
-    <mergeCell ref="A234:K234"/>
+    <mergeCell ref="J209:K209"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="A237:K237"/>
+    <mergeCell ref="A238:K238"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
